--- a/Monthly_Demand.xlsx
+++ b/Monthly_Demand.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Total Demand for Business Users customers for 2022 (Kudembe)</t>
+    <t>Total Demand for Residential Users customers for 2022 (Kudembe)</t>
   </si>
   <si>
     <t>Month</t>
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>92.14099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>304.407</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>348.0196666667</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>411.4373333333</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Demand.xlsx
+++ b/Monthly_Demand.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Total Demand for Residential Users customers for 2022 (Kudembe)</t>
+    <t>Total Demand for Business Users customers for 2022 (Kudembe)</t>
   </si>
   <si>
     <t>Month</t>
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>92.14099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>304.407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>348.0196666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>411.4373333333</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Demand.xlsx
+++ b/Monthly_Demand.xlsx
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>33.038</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>134.361</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>192.358</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>243.262</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Demand.xlsx
+++ b/Monthly_Demand.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Total Demand for Business Users customers for 2022 (Kudembe)</t>
+    <t>Total Demand for All Users customers for 2023 (Mthembanji)</t>
   </si>
   <si>
     <t>Month</t>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>472.3534509804</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>402.1748823529</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>149.997</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>33.038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>134.361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>192.358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>243.262</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Demand.xlsx
+++ b/Monthly_Demand.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Total Demand for All Users customers for 2023 (Mthembanji)</t>
+    <t>Total Demand for All Users customers for 2022 (Mthembanji)</t>
   </si>
   <si>
     <t>Month</t>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>472.3534509804</v>
+        <v>402.0241910578001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>402.1748823529</v>
+        <v>362.843</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>149.997</v>
+        <v>393.2419999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>363.646</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>443.7479999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>325.4370000008</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>399.6180000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>515.6840000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>481.9270000001</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>487.7779999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>467.098725</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>472.5559416667</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Demand.xlsx
+++ b/Monthly_Demand.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Total Demand for All Users customers for 2022 (Mthembanji)</t>
+    <t>Total Demand for All Users customers for 2023 (Mthembanji)</t>
   </si>
   <si>
     <t>Month</t>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>402.0241910578001</v>
+        <v>472.3534509804</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>362.843</v>
+        <v>402.1748823529</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>393.2419999999999</v>
+        <v>468.0039090909001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>363.646</v>
+        <v>132.2810909091</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -462,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>443.7479999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>325.4370000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>399.6180000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>515.6840000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>481.9270000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>487.7779999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>467.098725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>472.5559416667</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Monthly_Demand.xlsx
+++ b/Monthly_Demand.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>Total Demand for All Users customers for 2023 (Mthembanji)</t>
+    <t>Total Demand for All Users customers for 2025 (Mthembanji)</t>
   </si>
   <si>
     <t>Month</t>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>472.3534509804</v>
+        <v>695.3289142717998</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>402.1748823529</v>
+        <v>562.3680155543</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>468.0039090909001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>132.2810909091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
